--- a/data/20.xlsx
+++ b/data/20.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18900" windowHeight="8490"/>
+    <workbookView windowWidth="20750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="表20" sheetId="1" r:id="rId1"/>
@@ -1359,32 +1359,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="3.60176991150442" customWidth="1"/>
-    <col min="3" max="4" width="7.20353982300885" customWidth="1"/>
-    <col min="5" max="5" width="14.3982300884956" customWidth="1"/>
-    <col min="6" max="6" width="7.20353982300885" customWidth="1"/>
-    <col min="7" max="7" width="10.7964601769912" customWidth="1"/>
-    <col min="8" max="9" width="7.20353982300885" customWidth="1"/>
-    <col min="10" max="10" width="14.3982300884956" customWidth="1"/>
-    <col min="11" max="11" width="7.20353982300885" customWidth="1"/>
-    <col min="12" max="12" width="10.7964601769912" customWidth="1"/>
-    <col min="13" max="17" width="15.6017699115044" customWidth="1"/>
-    <col min="18" max="19" width="8.39823008849558" customWidth="1"/>
-    <col min="20" max="20" width="19.2035398230088" customWidth="1"/>
-    <col min="21" max="21" width="9.60176991150442" customWidth="1"/>
-    <col min="22" max="22" width="15.6017699115044" customWidth="1"/>
+    <col min="2" max="3" width="7.2" customWidth="1"/>
+    <col min="4" max="4" width="14.4" customWidth="1"/>
+    <col min="5" max="5" width="7.2" customWidth="1"/>
+    <col min="6" max="6" width="10.8" customWidth="1"/>
+    <col min="7" max="8" width="7.2" customWidth="1"/>
+    <col min="9" max="9" width="14.4" customWidth="1"/>
+    <col min="10" max="10" width="7.2" customWidth="1"/>
+    <col min="11" max="11" width="10.8" customWidth="1"/>
+    <col min="12" max="16" width="15.6" customWidth="1"/>
+    <col min="17" max="18" width="8.4" customWidth="1"/>
+    <col min="19" max="19" width="19.2" customWidth="1"/>
+    <col min="20" max="20" width="9.6" customWidth="1"/>
+    <col min="21" max="21" width="15.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22">
+    <row r="1" spans="2:21">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -1398,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1413,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
         <v>2</v>
@@ -1428,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R1" t="s">
         <v>3</v>
@@ -1442,87 +1444,87 @@
       <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="V1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
       <c r="Q2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>13</v>
-      </c>
-      <c r="V2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="B3">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1534,364 +1536,364 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="C4">
+      <c r="B4">
         <v>7</v>
       </c>
-      <c r="H4">
-        <v>2</v>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O4">
+        <v>1.8</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>1.8</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>10</v>
-      </c>
-      <c r="T4">
-        <v>7</v>
-      </c>
-      <c r="U4">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>6</v>
       </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16</v>
+      </c>
+      <c r="S5">
         <v>9</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="T5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
+      <c r="B6">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>3</v>
       </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
       <c r="M6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
         <v>16</v>
       </c>
-      <c r="T6">
+      <c r="S6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="H7">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>2</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="S7">
         <v>5</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>20</v>
       </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
         <v>6</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
         <v>6</v>
       </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="J9">
-        <v>2</v>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C10">
+      <c r="B10">
         <v>17</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="J10">
-        <v>2</v>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>28</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
         <v>1.75</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>28</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
       </c>
       <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>5</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>8</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="T11">
+      <c r="S11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="B12">
         <v>10</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="S12">
         <v>15</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>10</v>
-      </c>
-      <c r="T12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>25</v>
       </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
       <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>4.5</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+      <c r="Q13">
         <v>6</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>4.5</v>
       </c>
-      <c r="Q13">
-        <v>2</v>
-      </c>
-      <c r="R13">
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
       <c r="U13">
-        <v>4.5</v>
-      </c>
-      <c r="V13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
         <v>26</v>
       </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
       <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>27</v>
       </c>
-      <c r="C15">
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <v>1.25</v>
       </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
       <c r="M15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1903,376 +1905,376 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
         <v>11</v>
       </c>
-      <c r="U15">
+      <c r="T15">
         <v>1.25</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="C16">
+      <c r="B16">
         <v>13</v>
       </c>
-      <c r="H16">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>5</v>
       </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
         <v>17</v>
       </c>
-      <c r="T16">
+      <c r="S16">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="H17">
+      <c r="G17">
         <v>4</v>
       </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="S17">
         <v>4</v>
       </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="T17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="B18">
         <v>8</v>
       </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
       <c r="M18">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
         <v>17</v>
       </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>31</v>
       </c>
+      <c r="L19">
+        <v>20</v>
+      </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>11.8</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+      <c r="Q19">
         <v>20</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="S19">
         <v>4</v>
       </c>
-      <c r="P19">
+      <c r="T19">
         <v>11.8</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>8</v>
       </c>
-      <c r="R19">
-        <v>20</v>
-      </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
-      <c r="U19">
-        <v>11.8</v>
-      </c>
-      <c r="V19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>32</v>
       </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="S20">
         <v>10</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="B21">
         <v>8</v>
       </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
       <c r="M21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>10</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
         <v>10</v>
       </c>
-      <c r="T21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
       <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <v>4.25</v>
+      </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="S22">
         <v>6</v>
       </c>
-      <c r="P22">
+      <c r="T22">
         <v>4.25</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>4</v>
       </c>
-      <c r="R22">
-        <v>8</v>
-      </c>
-      <c r="T22">
-        <v>6</v>
-      </c>
-      <c r="U22">
-        <v>4.25</v>
-      </c>
-      <c r="V22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>35</v>
       </c>
-      <c r="C23">
+      <c r="B23">
         <v>9</v>
       </c>
-      <c r="J23">
+      <c r="I23">
         <v>6</v>
       </c>
+      <c r="L23">
+        <v>13</v>
+      </c>
       <c r="M23">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O23">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
         <v>22</v>
       </c>
-      <c r="T23">
+      <c r="S23">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>36</v>
       </c>
-      <c r="H24">
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="L24">
         <v>2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
         <v>6</v>
       </c>
-      <c r="T24">
+      <c r="S24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-      <c r="C25">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="J25">
-        <v>2</v>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
         <v>8</v>
       </c>
-      <c r="T25">
+      <c r="S25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>6</v>
       </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>11</v>
+      </c>
+      <c r="S26">
         <v>6</v>
       </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>11</v>
-      </c>
       <c r="T26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>2</v>
       </c>
-      <c r="V26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="K27">
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27">
         <v>0.3</v>
       </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
       <c r="M27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2284,190 +2286,190 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
         <v>4</v>
       </c>
-      <c r="U27">
+      <c r="T27">
         <v>0.3</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="C28">
+      <c r="B28">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="J28">
-        <v>1</v>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
         <v>3.7</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>4</v>
       </c>
-      <c r="R28">
-        <v>18</v>
-      </c>
-      <c r="T28">
-        <v>3</v>
-      </c>
-      <c r="U28">
-        <v>3.7</v>
-      </c>
-      <c r="V28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="J29">
-        <v>1</v>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="S29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>5</v>
       </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
       <c r="M30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>21</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
         <v>4.75</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>21</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
-      </c>
-      <c r="U30">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>43</v>
       </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
       <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>7.75</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
         <v>9</v>
       </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="T31">
         <v>7.75</v>
       </c>
-      <c r="Q31">
-        <v>2</v>
-      </c>
-      <c r="R31">
-        <v>9</v>
-      </c>
       <c r="U31">
-        <v>7.75</v>
-      </c>
-      <c r="V31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="C32">
+      <c r="B32">
         <v>12</v>
       </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
       <c r="M32">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>24</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
         <v>3.5</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>24</v>
-      </c>
-      <c r="T32">
-        <v>1</v>
-      </c>
-      <c r="U32">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>2</v>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2479,164 +2481,164 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
         <v>9</v>
       </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="S33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="H34">
-        <v>2</v>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>12.75</v>
+      </c>
+      <c r="P34">
         <v>14</v>
       </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>12.75</v>
-      </c>
       <c r="Q34">
-        <v>14</v>
-      </c>
-      <c r="R34">
         <v>16</v>
       </c>
+      <c r="T34">
+        <v>15.75</v>
+      </c>
       <c r="U34">
-        <v>15.75</v>
-      </c>
-      <c r="V34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>47</v>
       </c>
+      <c r="L35">
+        <v>10</v>
+      </c>
       <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
         <v>10</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
       <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
         <v>10</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
+        <v>10</v>
+      </c>
+      <c r="U35">
         <v>4</v>
       </c>
-      <c r="R35">
-        <v>10</v>
-      </c>
-      <c r="U35">
-        <v>10</v>
-      </c>
-      <c r="V35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <v>8</v>
       </c>
+      <c r="J36">
+        <v>4.25</v>
+      </c>
       <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
         <v>4.25</v>
       </c>
-      <c r="L36">
+      <c r="U36">
         <v>8</v>
       </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>8</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>4.25</v>
-      </c>
-      <c r="V36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>49</v>
       </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
       </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>0.8</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="S37">
         <v>3</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>2</v>
-      </c>
-      <c r="P37">
+      <c r="T37">
         <v>0.8</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>5</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>50</v>
       </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
       <c r="M38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2648,286 +2650,286 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="J39">
+      <c r="I39">
         <v>4</v>
       </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
       <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0.7</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>3</v>
       </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
         <v>0.7</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <v>3</v>
-      </c>
-      <c r="T39">
-        <v>4</v>
-      </c>
-      <c r="U39">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-      <c r="C40">
+      <c r="B40">
         <v>10</v>
       </c>
-      <c r="H40">
-        <v>2</v>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
         <v>16</v>
       </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>53</v>
       </c>
-      <c r="C41">
+      <c r="B41">
         <v>7</v>
       </c>
-      <c r="H41">
+      <c r="G41">
         <v>3</v>
       </c>
+      <c r="J41">
+        <v>2.45</v>
+      </c>
       <c r="K41">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="P41">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q41">
-        <v>4</v>
-      </c>
-      <c r="R41">
         <v>18</v>
       </c>
+      <c r="T41">
+        <v>8.2</v>
+      </c>
       <c r="U41">
-        <v>8.2</v>
-      </c>
-      <c r="V41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="C42">
+      <c r="B42">
         <v>9</v>
       </c>
-      <c r="H42">
-        <v>2</v>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
         <v>11</v>
       </c>
-      <c r="T42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>55</v>
       </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
       <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>11</v>
       </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>56</v>
       </c>
-      <c r="J44">
+      <c r="I44">
         <v>3</v>
       </c>
+      <c r="L44">
+        <v>35</v>
+      </c>
       <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>9</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>35</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>9</v>
-      </c>
-      <c r="P44">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>35</v>
+      <c r="S44">
+        <v>12</v>
       </c>
       <c r="T44">
-        <v>12</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>57</v>
       </c>
-      <c r="H45">
-        <v>2</v>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
         <v>0.35</v>
       </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
       <c r="M45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45">
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
         <v>3</v>
       </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
       <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
         <v>0.35</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>58</v>
       </c>
-      <c r="H46">
+      <c r="G46">
         <v>4</v>
       </c>
+      <c r="L46">
+        <v>7</v>
+      </c>
       <c r="M46">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>11</v>
+      </c>
+      <c r="T46">
         <v>1.75</v>
       </c>
-      <c r="Q46">
-        <v>1</v>
-      </c>
-      <c r="R46">
-        <v>11</v>
-      </c>
       <c r="U46">
-        <v>1.75</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="C47">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="J47">
+      <c r="I47">
         <v>3</v>
       </c>
+      <c r="L47">
+        <v>18</v>
+      </c>
       <c r="M47">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2939,62 +2941,62 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
         <v>25</v>
       </c>
-      <c r="T47">
+      <c r="S47">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>60</v>
       </c>
-      <c r="H48">
+      <c r="G48">
         <v>4</v>
       </c>
+      <c r="I48">
+        <v>9</v>
+      </c>
       <c r="J48">
-        <v>9</v>
-      </c>
-      <c r="K48">
         <v>1.7</v>
       </c>
+      <c r="L48">
+        <v>16</v>
+      </c>
       <c r="M48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P48">
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
         <v>20</v>
       </c>
+      <c r="S48">
+        <v>14</v>
+      </c>
       <c r="T48">
-        <v>14</v>
-      </c>
-      <c r="U48">
         <v>1.7</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="H49">
+      <c r="G49">
         <v>6</v>
       </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3006,85 +3008,82 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>62</v>
       </c>
-      <c r="H50">
+      <c r="G50">
         <v>7</v>
       </c>
+      <c r="J50">
+        <v>5.5</v>
+      </c>
       <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>7</v>
+      </c>
+      <c r="T50">
         <v>5.5</v>
       </c>
-      <c r="L50">
+      <c r="U50">
         <v>6</v>
       </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>7</v>
-      </c>
-      <c r="U50">
-        <v>5.5</v>
-      </c>
-      <c r="V50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="H51">
+      <c r="G51">
         <v>7</v>
       </c>
+      <c r="J51">
+        <v>11.55</v>
+      </c>
       <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>7</v>
+      </c>
+      <c r="T51">
         <v>11.55</v>
       </c>
-      <c r="L51">
-        <v>2</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>7</v>
-      </c>
       <c r="U51">
-        <v>11.55</v>
-      </c>
-      <c r="V51">
         <v>2</v>
       </c>
     </row>
